--- a/Results/results_Distributed_t0_8agents.xlsx
+++ b/Results/results_Distributed_t0_8agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B51A68-B78B-304C-9BC6-C55CAFD9874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F8B2C1-982B-3E47-BF03-1645F05FE88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17260" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_10runs_layout1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="31">
   <si>
     <t>Test</t>
   </si>
@@ -83,27 +83,6 @@
     <t>The coefficcient of variation</t>
   </si>
   <si>
-    <t>layouts/layout3/layout3_8agents_5.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout3/layout3_8agents_7.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout1/layout1_8agents_2.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout1/layout1_8agents_3.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout1/layout1_8agents_5.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout2/layout2_8agents_2.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout2/layout2_8agents_9.txt</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -119,25 +98,49 @@
     <t xml:space="preserve"> 9.5367431640625e-07</t>
   </si>
   <si>
-    <t>layouts/layout2/layout2_8agents_5.txt</t>
-  </si>
-  <si>
-    <t>layouts/layout2/layout2_8agents_6.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.1920928955078125e-06</t>
   </si>
   <si>
-    <t>layouts/layout1/layout1_8agents_1.txt</t>
+    <t xml:space="preserve"> 7.152557373046875e-07</t>
   </si>
   <si>
-    <t>layouts/layout1/layout1_8agents_10.txt</t>
+    <t>layouts_Dist0/layout1/layout1_8agents_1.txt</t>
   </si>
   <si>
-    <t>layouts/layout1/layout1_8agents_8.txt</t>
+    <t>layouts_Dist0/layout1/layout1_8agents_10.txt</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.152557373046875e-07</t>
+    <t>layouts_Dist0/layout1/layout1_8agents_2.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout1/layout1_8agents_3.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout1/layout1_8agents_5.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout1/layout1_8agents_8.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1457672119140625e-06</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout2/layout2_8agents_2.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout2/layout2_8agents_5.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout2/layout2_8agents_6.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout2/layout2_8agents_9.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout3/layout3_8agents_5.txt</t>
+  </si>
+  <si>
+    <t>layouts_Dist0/layout3/layout3_8agents_7.txt</t>
   </si>
 </sst>
 </file>
@@ -991,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,20 +1020,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>MID(A2,33,LEN(A2) - 36)</f>
+        <f>MID(A2,39,LEN(A2) - 42)</f>
         <v>1</v>
       </c>
       <c r="C2">
         <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1054,39 +1057,39 @@
         <v>10</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B61" si="0">MID(A3,33,LEN(A3) - 36)</f>
+        <f t="shared" ref="B3:B61" si="0">MID(A3,39,LEN(A3) - 42)</f>
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <f>COUNTIF($B:$B,G3)</f>
+        <f t="shared" ref="H3:H12" si="1">COUNTIF($B:$B,G3)</f>
         <v>10</v>
       </c>
       <c r="I3">
-        <f>SUMIF($B:$B,G3,$C:$C)</f>
+        <f t="shared" ref="I3:I12" si="2">SUMIF($B:$B,G3,$C:$C)</f>
         <v>1680</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIF($B:$B,G3,$C:$C)</f>
+        <f t="shared" ref="J3:J12" si="3">AVERAGEIF($B:$B,G3,$C:$C)</f>
         <v>168</v>
       </c>
       <c r="K3">
@@ -1101,485 +1104,485 @@
         <v>0</v>
       </c>
       <c r="N3" t="e">
-        <f>AVERAGEIF($B:$B,G3,$D:$D)</f>
+        <f t="shared" ref="N3:N12" si="4">AVERAGEIF($B:$B,G3,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f>G3+1</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f>COUNTIF($B:$B,G4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I4">
-        <f>SUMIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1680</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="1">K4^2</f>
+        <f t="shared" ref="L4:L12" si="5">K4^2</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M12" si="2">K4/J4</f>
+        <f t="shared" ref="M4:M12" si="6">K4/J4</f>
         <v>0</v>
       </c>
       <c r="N4" t="e">
-        <f>AVERAGEIF($B:$B,G4,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="3">G4+1</f>
+        <f t="shared" ref="G5:G12" si="7">G4+1</f>
         <v>3</v>
       </c>
       <c r="H5">
-        <f>COUNTIF($B:$B,G5)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I5">
-        <f>SUMIF($B:$B,G5,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1520</v>
       </c>
       <c r="J5">
-        <f>AVERAGEIF($B:$B,G5,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N5" t="e">
-        <f>AVERAGEIF($B:$B,G5,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="e">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <f>COUNTIF($B:$B,G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>SUMIF($B:$B,G6,$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="e">
-        <f>AVERAGEIF($B:$B,G6,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" t="e">
-        <f>AVERAGEIF($B:$B,G6,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f>COUNTIF($B:$B,G7)</f>
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <f>SUMIF($B:$B,G7,$C:$C)</f>
-        <v>1440</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGEIF($B:$B,G7,$C:$C)</f>
         <v>144</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N7" t="e">
-        <f>AVERAGEIF($B:$B,G7,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <f>COUNTIF($B:$B,G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>SUMIF($B:$B,G8,$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="e">
-        <f>AVERAGEIF($B:$B,G8,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" t="e">
-        <f>AVERAGEIF($B:$B,G8,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <f>COUNTIF($B:$B,G9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>SUMIF($B:$B,G9,$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="e">
-        <f>AVERAGEIF($B:$B,G9,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" t="e">
-        <f>AVERAGEIF($B:$B,G9,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3680</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f>COUNTIF($B:$B,G10)</f>
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <f>SUMIF($B:$B,G10,$C:$C)</f>
-        <v>3680</v>
-      </c>
-      <c r="J10">
-        <f>AVERAGEIF($B:$B,G10,$C:$C)</f>
         <v>368</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N10" t="e">
-        <f>AVERAGEIF($B:$B,G10,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G11">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="e">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f>COUNTIF($B:$B,G11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>SUMIF($B:$B,G11,$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" t="e">
-        <f>AVERAGEIF($B:$B,G11,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" t="e">
-        <f>AVERAGEIF($B:$B,G11,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1760</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f>COUNTIF($B:$B,G12)</f>
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <f>SUMIF($B:$B,G12,$C:$C)</f>
-        <v>1760</v>
-      </c>
-      <c r="J12">
-        <f>AVERAGEIF($B:$B,G12,$C:$C)</f>
         <v>176</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12" t="e">
-        <f>AVERAGEIF($B:$B,G12,$D:$D)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -1602,56 +1605,56 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <f>G15+1</f>
@@ -1669,33 +1672,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K19" si="4">J16^2</f>
+        <f t="shared" ref="K16:K19" si="8">J16^2</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L19" si="5">J16/I16</f>
+        <f t="shared" ref="L16:L19" si="9">J16/I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G24" si="6">G16+1</f>
+        <f t="shared" ref="G17:G24" si="10">G16+1</f>
         <v>3</v>
       </c>
       <c r="H17">
@@ -1710,70 +1713,70 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H19">
@@ -1788,508 +1791,508 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>368</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>368</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>176</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2298,16 +2301,16 @@
       <c r="C42" s="1">
         <v>144</v>
       </c>
-      <c r="D42" t="s">
-        <v>20</v>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2316,16 +2319,16 @@
       <c r="C43" s="1">
         <v>368</v>
       </c>
-      <c r="D43" t="s">
-        <v>20</v>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2334,16 +2337,16 @@
       <c r="C44" s="1">
         <v>168</v>
       </c>
-      <c r="D44" t="s">
-        <v>20</v>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2352,16 +2355,16 @@
       <c r="C45" s="1">
         <v>176</v>
       </c>
-      <c r="D45" t="s">
-        <v>20</v>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2370,16 +2373,16 @@
       <c r="C46" s="1">
         <v>168</v>
       </c>
-      <c r="D46" t="s">
-        <v>20</v>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2388,16 +2391,16 @@
       <c r="C47" s="1">
         <v>152</v>
       </c>
-      <c r="D47" t="s">
-        <v>20</v>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2406,16 +2409,16 @@
       <c r="C48" s="1">
         <v>144</v>
       </c>
-      <c r="D48" t="s">
-        <v>20</v>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2424,16 +2427,16 @@
       <c r="C49" s="1">
         <v>368</v>
       </c>
-      <c r="D49" t="s">
-        <v>20</v>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2442,16 +2445,16 @@
       <c r="C50" s="1">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
-        <v>20</v>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2460,191 +2463,191 @@
       <c r="C51" s="1">
         <v>176</v>
       </c>
-      <c r="D51" t="s">
-        <v>20</v>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>368</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>368</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
@@ -2971,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4E8E2-710A-FF44-AD17-940553F8F702}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2997,20 +3000,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>MID(A2,33,LEN(A2) - 36)</f>
+        <f t="shared" ref="B2:B41" si="0">MID(A2,39,LEN(A2) - 42)</f>
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -3034,25 +3037,25 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>MID(A3,33,LEN(A3) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3087,479 +3090,479 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>MID(A4,33,LEN(A4) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f>G3+1</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="0">COUNTIF($B:$B,G4)</f>
+        <f t="shared" ref="H4:H12" si="1">COUNTIF($B:$B,G4)</f>
         <v>10</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I12" si="1">SUMIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" ref="I4:I12" si="2">SUMIF($B:$B,G4,$C:$C)</f>
         <v>2160</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J12" si="2">AVERAGEIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" ref="J4:J12" si="3">AVERAGEIF($B:$B,G4,$C:$C)</f>
         <v>216</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="3">K4^2</f>
+        <f t="shared" ref="L4:L12" si="4">K4^2</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M12" si="4">K4/J4</f>
+        <f t="shared" ref="M4:M12" si="5">K4/J4</f>
         <v>0</v>
       </c>
       <c r="N4" t="e">
-        <f t="shared" ref="N4:N12" si="5">AVERAGEIF($B:$B,G4,$D:$D)</f>
+        <f t="shared" ref="N4:N12" si="6">AVERAGEIF($B:$B,G4,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>MID(A5,33,LEN(A5) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="6">G4+1</f>
+        <f t="shared" ref="G5:G12" si="7">G4+1</f>
         <v>3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>MID(A6,33,LEN(A6) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>MID(A7,33,LEN(A7) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H9" si="7">COUNTIF($B:$B,G7)</f>
+        <f t="shared" ref="H7:H9" si="8">COUNTIF($B:$B,G7)</f>
         <v>10</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I9" si="8">SUMIF($B:$B,G7,$C:$C)</f>
+        <f t="shared" ref="I7:I9" si="9">SUMIF($B:$B,G7,$C:$C)</f>
         <v>2160</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J9" si="9">AVERAGEIF($B:$B,G7,$C:$C)</f>
+        <f t="shared" ref="J7:J9" si="10">AVERAGEIF($B:$B,G7,$C:$C)</f>
         <v>216</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L9" si="10">K7^2</f>
+        <f t="shared" ref="L7:L9" si="11">K7^2</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M9" si="11">K7/J7</f>
+        <f t="shared" ref="M7:M9" si="12">K7/J7</f>
         <v>0</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" ref="N7:N9" si="12">AVERAGEIF($B:$B,G7,$D:$D)</f>
+        <f t="shared" ref="N7:N9" si="13">AVERAGEIF($B:$B,G7,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>MID(A8,33,LEN(A8) - 36)</f>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>232</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>2320</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="10"/>
+        <v>232</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="1">
         <v>216</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
         <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="C12" s="1">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="8"/>
-        <v>2320</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="9"/>
-        <v>232</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N8" t="e">
-        <f t="shared" si="12"/>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>MID(A9,33,LEN(A9) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>216</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>MID(A10,33,LEN(A10) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>216</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" t="e">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>0</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>MID(A11,33,LEN(A11) - 36)</f>
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>216</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
+      <c r="N12" t="e">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>MID(A12,33,LEN(A12) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>216</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>MID(A13,33,LEN(A13) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>MID(A14,33,LEN(A14) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -3582,20 +3585,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>MID(A15,33,LEN(A15) - 36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" ref="I15:I24" si="13">AVERAGEIF($B:$B,G15,$C:$C)</f>
+        <f t="shared" ref="I15:I24" si="14">AVERAGEIF($B:$B,G15,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15">
@@ -3622,677 +3625,677 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>MID(A16,33,LEN(A16) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <f>G15+1</f>
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H24" si="14">COUNTIF($B:$B,G16)</f>
+        <f t="shared" ref="H16:H24" si="15">COUNTIF($B:$B,G16)</f>
         <v>10</v>
       </c>
       <c r="I16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K24" si="15">J16^2</f>
+        <f t="shared" ref="K16:K24" si="16">J16^2</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L24" si="16">J16/I16</f>
+        <f t="shared" ref="L16:L24" si="17">J16/I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>MID(A17,33,LEN(A17) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G24" si="17">G16+1</f>
+        <f t="shared" ref="G17:G24" si="18">G16+1</f>
         <v>3</v>
       </c>
       <c r="H17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L17" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>MID(A18,33,LEN(A18) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G18">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L18" t="e">
-        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>MID(A19,33,LEN(A19) - 36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G19">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="13"/>
-        <v>216</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>MID(A20,33,LEN(A20) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="13"/>
-        <v>232</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>MID(A21,33,LEN(A21) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G21">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="e">
         <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>MID(A22,33,LEN(A22) - 36)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G22">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="e">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>MID(A23,33,LEN(A23) - 36)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>232</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G23">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>MID(A24,33,LEN(A24) - 36)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G24">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="e">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>MID(A25,33,LEN(A25) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>MID(A26,33,LEN(A26) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>MID(A27,33,LEN(A27) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>MID(A28,33,LEN(A28) - 36)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>MID(A29,33,LEN(A29) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>MID(A30,33,LEN(A30) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>216</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>MID(A31,33,LEN(A31) - 36)</f>
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>232</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>MID(A32,33,LEN(A32) - 36)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
+        <v>232</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>MID(A33,33,LEN(A33) - 36)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C33" s="1">
         <v>200</v>
       </c>
-      <c r="D33" t="s">
-        <v>20</v>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>MID(A34,33,LEN(A34) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>MID(A35,33,LEN(A35) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>MID(A36,33,LEN(A36) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>MID(A37,33,LEN(A37) - 36)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>MID(A38,33,LEN(A38) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>MID(A39,33,LEN(A39) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>MID(A40,33,LEN(A40) - 36)</f>
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>MID(A41,33,LEN(A41) - 36)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4507,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD7E65-601A-0640-B3DF-ED29C13EE74C}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4533,20 +4536,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>MID(A2,33,LEN(A2) - 36)</f>
+        <f t="shared" ref="B2:B21" si="0">MID(A2,39,LEN(A2) - 42)</f>
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -4572,20 +4575,20 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>MID(A3,33,LEN(A3) - 36)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>240</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4620,479 +4623,479 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>MID(A4,33,LEN(A4) - 36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>240</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f>G3+1</f>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="0">COUNTIF($B:$B,G4)</f>
+        <f t="shared" ref="H4:H12" si="1">COUNTIF($B:$B,G4)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I12" si="1">SUMIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" ref="I4:I12" si="2">SUMIF($B:$B,G4,$C:$C)</f>
         <v>0</v>
       </c>
       <c r="J4" t="e">
-        <f t="shared" ref="J4:J12" si="2">AVERAGEIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" ref="J4:J12" si="3">AVERAGEIF($B:$B,G4,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="3">K4^2</f>
+        <f t="shared" ref="L4:L12" si="4">K4^2</f>
         <v>0</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" ref="M4:M12" si="4">K4/J4</f>
+        <f t="shared" ref="M4:M12" si="5">K4/J4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" t="e">
-        <f t="shared" ref="N4:N12" si="5">AVERAGEIF($B:$B,G4,$D:$D)</f>
+        <f t="shared" ref="N4:N12" si="6">AVERAGEIF($B:$B,G4,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>MID(A5,33,LEN(A5) - 36)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="6">G4+1</f>
+        <f t="shared" ref="G5:G12" si="7">G4+1</f>
         <v>3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>MID(A6,33,LEN(A6) - 36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>MID(A7,33,LEN(A7) - 36)</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>128</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I7">
+      <c r="C8" s="1">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7" t="e">
+      <c r="M8" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>MID(A8,33,LEN(A8) - 36)</f>
+      <c r="N8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="1">
         <v>240</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" t="e">
+      <c r="I10">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" t="e">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>0</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>MID(A9,33,LEN(A9) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>240</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
+      <c r="N10" t="e">
         <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I9">
+      <c r="C11" s="1">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="J11" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N9" t="e">
+      <c r="M11" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>MID(A10,33,LEN(A10) - 36)</f>
+      <c r="N11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>240</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" t="e">
+      <c r="I12">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" t="e">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>0</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>MID(A11,33,LEN(A11) - 36)</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>240</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
+      <c r="N12" t="e">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>MID(A12,33,LEN(A12) - 36)</f>
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>128</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>MID(A13,33,LEN(A13) - 36)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>128</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>MID(A14,33,LEN(A14) - 36)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>128</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+        <v>240</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -5115,20 +5118,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>MID(A15,33,LEN(A15) - 36)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5138,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" ref="I15:I24" si="7">AVERAGEIF($B:$B,G15,$C:$C)</f>
+        <f t="shared" ref="I15:I24" si="8">AVERAGEIF($B:$B,G15,$C:$C)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15">
@@ -5155,247 +5158,247 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>MID(A16,33,LEN(A16) - 36)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
+        <v>240</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <f>G15+1</f>
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H24" si="8">COUNTIF($B:$B,G16)</f>
+        <f t="shared" ref="H16:H24" si="9">COUNTIF($B:$B,G16)</f>
         <v>0</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K24" si="9">J16^2</f>
+        <f t="shared" ref="K16:K24" si="10">J16^2</f>
         <v>0</v>
       </c>
       <c r="L16" t="e">
-        <f t="shared" ref="L16:L24" si="10">J16/I16</f>
+        <f t="shared" ref="L16:L24" si="11">J16/I16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>MID(A17,33,LEN(A17) - 36)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>128</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G24" si="11">G16+1</f>
+        <f t="shared" ref="G17:G24" si="12">G16+1</f>
         <v>3</v>
       </c>
       <c r="H17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L17" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>MID(A18,33,LEN(A18) - 36)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G18">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L18" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>MID(A19,33,LEN(A19) - 36)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>128</v>
       </c>
-      <c r="D19" t="s">
-        <v>20</v>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G19">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>MID(A20,33,LEN(A20) - 36)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>128</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
+        <v>240</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" t="e">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L20" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>MID(A21,33,LEN(A21) - 36)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G21">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5403,26 +5406,26 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5430,26 +5433,26 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="G23">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="e">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5457,26 +5460,26 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="G24">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="e">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29010,7 +29013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881754AB-EF73-3F48-9759-7A2B41E5953A}">
   <dimension ref="B1:M2701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Results/results_Distributed_t0_8agents.xlsx
+++ b/Results/results_Distributed_t0_8agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE70AF8-0F65-5743-9112-20204065B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB4FF76-15BF-E546-A168-4E0BBF088B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="760" windowWidth="21460" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="-360" windowWidth="21460" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview (2)" sheetId="10" r:id="rId1"/>
@@ -667,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,7 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1035,7 +1034,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1081,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <f>B4+1</f>
+        <f t="shared" ref="B5:B13" si="0">B4+1</f>
         <v>2</v>
       </c>
       <c r="C5">
@@ -1099,7 +1098,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6">
@@ -1115,7 +1114,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1130,7 +1129,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8">
@@ -1148,7 +1147,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1164,7 +1163,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1180,7 +1179,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11">
@@ -1196,7 +1195,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1212,7 +1211,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13">
@@ -27263,7 +27262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -27291,11 +27290,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="str">
-        <f>MID(A2,33,LEN(A2) - 36)</f>
+        <f t="shared" ref="B2:B33" si="0">MID(A2,33,LEN(A2) - 36)</f>
         <v>1</v>
       </c>
       <c r="C2">
@@ -27340,10 +27339,10 @@
         <v>29</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(A3,33,LEN(A3) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>152</v>
       </c>
       <c r="D3" t="s">
@@ -27359,7 +27358,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f>COUNTIF($B:$B,H3)</f>
+        <f t="shared" ref="I3:I12" si="1">COUNTIF($B:$B,H3)</f>
         <v>10</v>
       </c>
       <c r="J3">
@@ -27367,22 +27366,22 @@
         <v>1624</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIF($B:$B,H3,$C:$C)</f>
+        <f t="shared" ref="K3:K12" si="2">AVERAGEIF($B:$B,H3,$C:$C)</f>
         <v>162.4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <f>L3^2</f>
+        <f t="shared" ref="M3:M12" si="3">L3^2</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>L3/K3</f>
+        <f t="shared" ref="N3:N12" si="4">L3/K3</f>
         <v>0</v>
       </c>
       <c r="O3" t="e">
-        <f>AVERAGEIF($B:$B,H3,$D:$D)</f>
+        <f t="shared" ref="O3:O12" si="5">AVERAGEIF($B:$B,H3,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27391,10 +27390,10 @@
         <v>29</v>
       </c>
       <c r="B4" t="str">
-        <f>MID(A4,33,LEN(A4) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -27407,11 +27406,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>H3+1</f>
+        <f t="shared" ref="H4:H12" si="6">H3+1</f>
         <v>2</v>
       </c>
       <c r="I4">
-        <f>COUNTIF($B:$B,H4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J4">
@@ -27419,22 +27418,22 @@
         <v>3368</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIF($B:$B,H4,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>336.8</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f>L4^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>L4/K4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O4" t="e">
-        <f>AVERAGEIF($B:$B,H4,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27443,10 +27442,10 @@
         <v>29</v>
       </c>
       <c r="B5" t="str">
-        <f>MID(A5,33,LEN(A5) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>168</v>
       </c>
       <c r="D5" t="s">
@@ -27459,11 +27458,11 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>H4+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I5">
-        <f>COUNTIF($B:$B,H5)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J5">
@@ -27471,22 +27470,22 @@
         <v>1520</v>
       </c>
       <c r="K5">
-        <f>AVERAGEIF($B:$B,H5,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <f>L5^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>L5/K5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5" t="e">
-        <f>AVERAGEIF($B:$B,H5,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27495,10 +27494,10 @@
         <v>29</v>
       </c>
       <c r="B6" t="str">
-        <f>MID(A6,33,LEN(A6) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>168</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -27511,11 +27510,11 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>H5+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I6">
-        <f>COUNTIF($B:$B,H6)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J6">
@@ -27523,22 +27522,22 @@
         <v>14616</v>
       </c>
       <c r="K6">
-        <f>AVERAGEIF($B:$B,H6,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1461.6</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <f>L6^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>L6/K6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6" t="e">
-        <f>AVERAGEIF($B:$B,H6,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27547,10 +27546,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="str">
-        <f>MID(A7,33,LEN(A7) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>152</v>
       </c>
       <c r="D7" t="s">
@@ -27563,33 +27562,33 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H6+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I7">
-        <f>COUNTIF($B:$B,H7)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <f>AVERAGEIF($B:$B,H7,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <f>L7^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>L7/K7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7" t="e">
-        <f>AVERAGEIF($B:$B,H7,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27598,10 +27597,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="str">
-        <f>MID(A8,33,LEN(A8) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -27614,11 +27613,11 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H7+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I8">
-        <f>COUNTIF($B:$B,H8)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J8">
@@ -27626,22 +27625,22 @@
         <v>16000</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIF($B:$B,H8,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <f>L8^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>L8/K8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8" t="e">
-        <f>AVERAGEIF($B:$B,H8,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27650,10 +27649,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="str">
-        <f>MID(A9,33,LEN(A9) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>168</v>
       </c>
       <c r="D9" t="s">
@@ -27666,11 +27665,11 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H8+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I9">
-        <f>COUNTIF($B:$B,H9)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J9">
@@ -27678,22 +27677,22 @@
         <v>4480</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIF($B:$B,H9,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <f>L9^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>L9/K9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9" t="e">
-        <f>AVERAGEIF($B:$B,H9,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27702,10 +27701,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="str">
-        <f>MID(A10,33,LEN(A10) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -27718,11 +27717,11 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H9+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I10">
-        <f>COUNTIF($B:$B,H10)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J10">
@@ -27730,22 +27729,22 @@
         <v>2152</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIF($B:$B,H10,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>215.2</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f>L10^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>L10/K10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10" t="e">
-        <f>AVERAGEIF($B:$B,H10,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27754,10 +27753,10 @@
         <v>29</v>
       </c>
       <c r="B11" t="str">
-        <f>MID(A11,33,LEN(A11) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>168</v>
       </c>
       <c r="D11" t="s">
@@ -27770,11 +27769,11 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H10+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I11">
-        <f>COUNTIF($B:$B,H11)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J11">
@@ -27782,22 +27781,22 @@
         <v>16000</v>
       </c>
       <c r="K11">
-        <f>AVERAGEIF($B:$B,H11,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <f>L11^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>L11/K11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" t="e">
-        <f>AVERAGEIF($B:$B,H11,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27806,10 +27805,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="str">
-        <f>MID(A12,33,LEN(A12) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -27822,11 +27821,11 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H11+1</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I12">
-        <f>COUNTIF($B:$B,H12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J12">
@@ -27834,22 +27833,22 @@
         <v>1992</v>
       </c>
       <c r="K12">
-        <f>AVERAGEIF($B:$B,H12,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>199.2</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <f>L12^2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>L12/K12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12" t="e">
-        <f>AVERAGEIF($B:$B,H12,$D:$D)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -27858,10 +27857,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="str">
-        <f>MID(A13,33,LEN(A13) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>176</v>
       </c>
       <c r="D13" t="s">
@@ -27879,10 +27878,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="str">
-        <f>MID(A14,33,LEN(A14) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -27918,10 +27917,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="str">
-        <f>MID(A15,33,LEN(A15) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>264</v>
       </c>
       <c r="D15" t="s">
@@ -27957,10 +27956,10 @@
         <v>30</v>
       </c>
       <c r="B16" t="str">
-        <f>MID(A16,33,LEN(A16) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -27973,7 +27972,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>H15+1</f>
+        <f t="shared" ref="H16:H24" si="7">H15+1</f>
         <v>2</v>
       </c>
       <c r="I16">
@@ -28001,10 +28000,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="str">
-        <f>MID(A17,33,LEN(A17) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>176</v>
       </c>
       <c r="D17" t="s">
@@ -28017,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>H16+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I17">
@@ -28045,10 +28044,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="str">
-        <f>MID(A18,33,LEN(A18) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>232</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -28061,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>H17+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -28085,10 +28084,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="str">
-        <f>MID(A19,33,LEN(A19) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>176</v>
       </c>
       <c r="D19" t="s">
@@ -28101,7 +28100,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f>H18+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I19">
@@ -28129,10 +28128,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="str">
-        <f>MID(A20,33,LEN(A20) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -28145,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>H19+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -28169,10 +28168,10 @@
         <v>30</v>
       </c>
       <c r="B21" t="str">
-        <f>MID(A21,33,LEN(A21) - 36)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>176</v>
       </c>
       <c r="D21" t="s">
@@ -28185,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>H20+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -28209,10 +28208,10 @@
         <v>31</v>
       </c>
       <c r="B22" t="str">
-        <f>MID(A22,33,LEN(A22) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -28225,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>H21+1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -28249,10 +28248,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="str">
-        <f>MID(A23,33,LEN(A23) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>1600</v>
       </c>
       <c r="D23" t="s">
@@ -28265,7 +28264,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>H22+1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -28289,10 +28288,10 @@
         <v>31</v>
       </c>
       <c r="B24" t="str">
-        <f>MID(A24,33,LEN(A24) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -28305,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>H23+1</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -28329,10 +28328,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="str">
-        <f>MID(A25,33,LEN(A25) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
@@ -28350,10 +28349,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="str">
-        <f>MID(A26,33,LEN(A26) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -28371,10 +28370,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="str">
-        <f>MID(A27,33,LEN(A27) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>152</v>
       </c>
       <c r="D27" t="s">
@@ -28392,10 +28391,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="str">
-        <f>MID(A28,33,LEN(A28) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>184</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -28413,10 +28412,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="str">
-        <f>MID(A29,33,LEN(A29) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>184</v>
       </c>
       <c r="D29" t="s">
@@ -28434,10 +28433,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="str">
-        <f>MID(A30,33,LEN(A30) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>216</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -28455,10 +28454,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="str">
-        <f>MID(A31,33,LEN(A31) - 36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>248</v>
       </c>
       <c r="D31" t="s">
@@ -28476,10 +28475,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="str">
-        <f>MID(A32,33,LEN(A32) - 36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>152</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -28497,10 +28496,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="str">
-        <f>MID(A33,33,LEN(A33) - 36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>152</v>
       </c>
       <c r="D33" t="s">
@@ -28518,10 +28517,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f>MID(A34,33,LEN(A34) - 36)</f>
+        <f t="shared" ref="B34:B65" si="8">MID(A34,33,LEN(A34) - 36)</f>
         <v>3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -28539,10 +28538,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="str">
-        <f>MID(A35,33,LEN(A35) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>152</v>
       </c>
       <c r="D35" t="s">
@@ -28560,10 +28559,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="str">
-        <f>MID(A36,33,LEN(A36) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>152</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -28581,10 +28580,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="str">
-        <f>MID(A37,33,LEN(A37) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>152</v>
       </c>
       <c r="D37" t="s">
@@ -28602,10 +28601,10 @@
         <v>33</v>
       </c>
       <c r="B38" t="str">
-        <f>MID(A38,33,LEN(A38) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>152</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -28623,10 +28622,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="str">
-        <f>MID(A39,33,LEN(A39) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>152</v>
       </c>
       <c r="D39" t="s">
@@ -28644,10 +28643,10 @@
         <v>33</v>
       </c>
       <c r="B40" t="str">
-        <f>MID(A40,33,LEN(A40) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>152</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -28665,10 +28664,10 @@
         <v>33</v>
       </c>
       <c r="B41" t="str">
-        <f>MID(A41,33,LEN(A41) - 36)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>152</v>
       </c>
       <c r="D41" t="s">
@@ -28686,10 +28685,10 @@
         <v>34</v>
       </c>
       <c r="B42" t="str">
-        <f>MID(A42,33,LEN(A42) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>1600</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -28707,10 +28706,10 @@
         <v>34</v>
       </c>
       <c r="B43" t="str">
-        <f>MID(A43,33,LEN(A43) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>1600</v>
       </c>
       <c r="D43" t="s">
@@ -28728,10 +28727,10 @@
         <v>34</v>
       </c>
       <c r="B44" t="str">
-        <f>MID(A44,33,LEN(A44) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>1600</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -28749,10 +28748,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="str">
-        <f>MID(A45,33,LEN(A45) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>1600</v>
       </c>
       <c r="D45" t="s">
@@ -28770,10 +28769,10 @@
         <v>34</v>
       </c>
       <c r="B46" t="str">
-        <f>MID(A46,33,LEN(A46) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>1600</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -28791,10 +28790,10 @@
         <v>34</v>
       </c>
       <c r="B47" t="str">
-        <f>MID(A47,33,LEN(A47) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>1600</v>
       </c>
       <c r="D47" t="s">
@@ -28812,10 +28811,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="str">
-        <f>MID(A48,33,LEN(A48) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <v>216</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -28833,10 +28832,10 @@
         <v>34</v>
       </c>
       <c r="B49" t="str">
-        <f>MID(A49,33,LEN(A49) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>1600</v>
       </c>
       <c r="D49" t="s">
@@ -28854,10 +28853,10 @@
         <v>34</v>
       </c>
       <c r="B50" t="str">
-        <f>MID(A50,33,LEN(A50) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>1600</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -28875,10 +28874,10 @@
         <v>34</v>
       </c>
       <c r="B51" t="str">
-        <f>MID(A51,33,LEN(A51) - 36)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>1600</v>
       </c>
       <c r="D51" t="s">
@@ -28896,10 +28895,10 @@
         <v>35</v>
       </c>
       <c r="B52" t="str">
-        <f>MID(A52,33,LEN(A52) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>208</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -28917,10 +28916,10 @@
         <v>35</v>
       </c>
       <c r="B53" t="str">
-        <f>MID(A53,33,LEN(A53) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>192</v>
       </c>
       <c r="D53" t="s">
@@ -28938,10 +28937,10 @@
         <v>35</v>
       </c>
       <c r="B54" t="str">
-        <f>MID(A54,33,LEN(A54) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>208</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -28959,10 +28958,10 @@
         <v>35</v>
       </c>
       <c r="B55" t="str">
-        <f>MID(A55,33,LEN(A55) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>192</v>
       </c>
       <c r="D55" t="s">
@@ -28980,10 +28979,10 @@
         <v>35</v>
       </c>
       <c r="B56" t="str">
-        <f>MID(A56,33,LEN(A56) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -29001,10 +29000,10 @@
         <v>35</v>
       </c>
       <c r="B57" t="str">
-        <f>MID(A57,33,LEN(A57) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>192</v>
       </c>
       <c r="D57" t="s">
@@ -29022,10 +29021,10 @@
         <v>35</v>
       </c>
       <c r="B58" t="str">
-        <f>MID(A58,33,LEN(A58) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>192</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -29043,10 +29042,10 @@
         <v>35</v>
       </c>
       <c r="B59" t="str">
-        <f>MID(A59,33,LEN(A59) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>192</v>
       </c>
       <c r="D59" t="s">
@@ -29064,10 +29063,10 @@
         <v>35</v>
       </c>
       <c r="B60" t="str">
-        <f>MID(A60,33,LEN(A60) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <v>1600</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -29085,10 +29084,10 @@
         <v>35</v>
       </c>
       <c r="B61" t="str">
-        <f>MID(A61,33,LEN(A61) - 36)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61">
         <v>192</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -29106,10 +29105,10 @@
         <v>36</v>
       </c>
       <c r="B62" t="str">
-        <f>MID(A62,33,LEN(A62) - 36)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>1600</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -29127,10 +29126,10 @@
         <v>36</v>
       </c>
       <c r="B63" t="str">
-        <f>MID(A63,33,LEN(A63) - 36)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>1600</v>
       </c>
       <c r="D63" t="s">
@@ -29148,10 +29147,10 @@
         <v>36</v>
       </c>
       <c r="B64" t="str">
-        <f>MID(A64,33,LEN(A64) - 36)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64">
         <v>1600</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -29169,10 +29168,10 @@
         <v>36</v>
       </c>
       <c r="B65" t="str">
-        <f>MID(A65,33,LEN(A65) - 36)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>1600</v>
       </c>
       <c r="D65" t="s">
@@ -29190,10 +29189,10 @@
         <v>36</v>
       </c>
       <c r="B66" t="str">
-        <f>MID(A66,33,LEN(A66) - 36)</f>
+        <f t="shared" ref="B66:B97" si="9">MID(A66,33,LEN(A66) - 36)</f>
         <v>6</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>1600</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -29211,10 +29210,10 @@
         <v>36</v>
       </c>
       <c r="B67" t="str">
-        <f>MID(A67,33,LEN(A67) - 36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67">
         <v>1600</v>
       </c>
       <c r="D67" t="s">
@@ -29232,10 +29231,10 @@
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f>MID(A68,33,LEN(A68) - 36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68">
         <v>1600</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -29253,10 +29252,10 @@
         <v>36</v>
       </c>
       <c r="B69" t="str">
-        <f>MID(A69,33,LEN(A69) - 36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69">
         <v>1600</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -29274,10 +29273,10 @@
         <v>36</v>
       </c>
       <c r="B70" t="str">
-        <f>MID(A70,33,LEN(A70) - 36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>1600</v>
       </c>
       <c r="D70" t="s">
@@ -29295,10 +29294,10 @@
         <v>36</v>
       </c>
       <c r="B71" t="str">
-        <f>MID(A71,33,LEN(A71) - 36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71">
         <v>1600</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -29316,10 +29315,10 @@
         <v>37</v>
       </c>
       <c r="B72" t="str">
-        <f>MID(A72,33,LEN(A72) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72">
         <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -29337,10 +29336,10 @@
         <v>37</v>
       </c>
       <c r="B73" t="str">
-        <f>MID(A73,33,LEN(A73) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73">
         <v>168</v>
       </c>
       <c r="D73" t="s">
@@ -29358,10 +29357,10 @@
         <v>37</v>
       </c>
       <c r="B74" t="str">
-        <f>MID(A74,33,LEN(A74) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74">
         <v>152</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -29379,10 +29378,10 @@
         <v>37</v>
       </c>
       <c r="B75" t="str">
-        <f>MID(A75,33,LEN(A75) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75">
         <v>168</v>
       </c>
       <c r="D75" t="s">
@@ -29400,10 +29399,10 @@
         <v>37</v>
       </c>
       <c r="B76" t="str">
-        <f>MID(A76,33,LEN(A76) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76">
         <v>168</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -29421,10 +29420,10 @@
         <v>37</v>
       </c>
       <c r="B77" t="str">
-        <f>MID(A77,33,LEN(A77) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77">
         <v>152</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -29442,10 +29441,10 @@
         <v>37</v>
       </c>
       <c r="B78" t="str">
-        <f>MID(A78,33,LEN(A78) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78">
         <v>1600</v>
       </c>
       <c r="D78" t="s">
@@ -29463,10 +29462,10 @@
         <v>37</v>
       </c>
       <c r="B79" t="str">
-        <f>MID(A79,33,LEN(A79) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79">
         <v>152</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -29484,10 +29483,10 @@
         <v>37</v>
       </c>
       <c r="B80" t="str">
-        <f>MID(A80,33,LEN(A80) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80">
         <v>152</v>
       </c>
       <c r="D80" t="s">
@@ -29505,10 +29504,10 @@
         <v>37</v>
       </c>
       <c r="B81" t="str">
-        <f>MID(A81,33,LEN(A81) - 36)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81">
         <v>1600</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -29526,10 +29525,10 @@
         <v>38</v>
       </c>
       <c r="B82" t="str">
-        <f>MID(A82,33,LEN(A82) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82">
         <v>272</v>
       </c>
       <c r="D82" t="s">
@@ -29547,10 +29546,10 @@
         <v>38</v>
       </c>
       <c r="B83" t="str">
-        <f>MID(A83,33,LEN(A83) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83">
         <v>224</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -29568,10 +29567,10 @@
         <v>38</v>
       </c>
       <c r="B84" t="str">
-        <f>MID(A84,33,LEN(A84) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84">
         <v>208</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -29589,10 +29588,10 @@
         <v>38</v>
       </c>
       <c r="B85" t="str">
-        <f>MID(A85,33,LEN(A85) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85">
         <v>208</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -29610,10 +29609,10 @@
         <v>38</v>
       </c>
       <c r="B86" t="str">
-        <f>MID(A86,33,LEN(A86) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86">
         <v>224</v>
       </c>
       <c r="D86" t="s">
@@ -29631,10 +29630,10 @@
         <v>38</v>
       </c>
       <c r="B87" t="str">
-        <f>MID(A87,33,LEN(A87) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87">
         <v>208</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -29652,10 +29651,10 @@
         <v>38</v>
       </c>
       <c r="B88" t="str">
-        <f>MID(A88,33,LEN(A88) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88">
         <v>208</v>
       </c>
       <c r="D88" t="s">
@@ -29673,10 +29672,10 @@
         <v>38</v>
       </c>
       <c r="B89" t="str">
-        <f>MID(A89,33,LEN(A89) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89">
         <v>184</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -29694,10 +29693,10 @@
         <v>38</v>
       </c>
       <c r="B90" t="str">
-        <f>MID(A90,33,LEN(A90) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90">
         <v>208</v>
       </c>
       <c r="D90" t="s">
@@ -29715,10 +29714,10 @@
         <v>38</v>
       </c>
       <c r="B91" t="str">
-        <f>MID(A91,33,LEN(A91) - 36)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91">
         <v>208</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -29736,10 +29735,10 @@
         <v>39</v>
       </c>
       <c r="B92" t="str">
-        <f>MID(A92,33,LEN(A92) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92">
         <v>1600</v>
       </c>
       <c r="D92" t="s">
@@ -29757,10 +29756,10 @@
         <v>39</v>
       </c>
       <c r="B93" t="str">
-        <f>MID(A93,33,LEN(A93) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93">
         <v>1600</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -29778,10 +29777,10 @@
         <v>39</v>
       </c>
       <c r="B94" t="str">
-        <f>MID(A94,33,LEN(A94) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94">
         <v>1600</v>
       </c>
       <c r="D94" t="s">
@@ -29799,10 +29798,10 @@
         <v>39</v>
       </c>
       <c r="B95" t="str">
-        <f>MID(A95,33,LEN(A95) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95">
         <v>1600</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -29820,10 +29819,10 @@
         <v>39</v>
       </c>
       <c r="B96" t="str">
-        <f>MID(A96,33,LEN(A96) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96">
         <v>1600</v>
       </c>
       <c r="D96" t="s">
@@ -29841,10 +29840,10 @@
         <v>39</v>
       </c>
       <c r="B97" t="str">
-        <f>MID(A97,33,LEN(A97) - 36)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97">
         <v>1600</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -29862,10 +29861,10 @@
         <v>39</v>
       </c>
       <c r="B98" t="str">
-        <f>MID(A98,33,LEN(A98) - 36)</f>
+        <f t="shared" ref="B98:B129" si="10">MID(A98,33,LEN(A98) - 36)</f>
         <v>9</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98">
         <v>1600</v>
       </c>
       <c r="D98" t="s">
@@ -29883,10 +29882,10 @@
         <v>39</v>
       </c>
       <c r="B99" t="str">
-        <f>MID(A99,33,LEN(A99) - 36)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99">
         <v>1600</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -29904,10 +29903,10 @@
         <v>39</v>
       </c>
       <c r="B100" t="str">
-        <f>MID(A100,33,LEN(A100) - 36)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100">
         <v>1600</v>
       </c>
       <c r="D100" t="s">
@@ -29925,10 +29924,10 @@
         <v>39</v>
       </c>
       <c r="B101" t="str">
-        <f>MID(A101,33,LEN(A101) - 36)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101">
         <v>1600</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -29942,349 +29941,172 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="6"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="6"/>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="6"/>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="6"/>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="6"/>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="6"/>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="6"/>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="6"/>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="6"/>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="6"/>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="6"/>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="6"/>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="6"/>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="6"/>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="6"/>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="6"/>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="6"/>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="6"/>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="6"/>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="6"/>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="6"/>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="6"/>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="6"/>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="6"/>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="6"/>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="6"/>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="6"/>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="6"/>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="6"/>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="6"/>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="6"/>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="6"/>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="6"/>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" s="6"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" s="6"/>
-    </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" s="6"/>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" s="6"/>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" s="6"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" s="6"/>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
@@ -30474,8 +30296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F121A0-D26F-F244-B819-B6EEE7CA8316}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B101" sqref="B2:B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30502,7 +30324,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="str">
@@ -30557,7 +30379,7 @@
       <c r="C3">
         <v>176</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -30570,30 +30392,30 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f>COUNTIF($B:$B,H3)</f>
+        <f t="shared" ref="I3:I12" si="1">COUNTIF($B:$B,H3)</f>
         <v>10</v>
       </c>
       <c r="J3">
-        <f>SUMIF($B:$B,H3,$C:$C)</f>
+        <f t="shared" ref="J3:J12" si="2">SUMIF($B:$B,H3,$C:$C)</f>
         <v>1680</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIF($B:$B,H3,$C:$C)</f>
+        <f t="shared" ref="K3:K12" si="3">AVERAGEIF($B:$B,H3,$C:$C)</f>
         <v>168</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <f>L3^2</f>
+        <f t="shared" ref="M3:M12" si="4">L3^2</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>L3/K3</f>
+        <f t="shared" ref="N3:N12" si="5">L3/K3</f>
         <v>0</v>
       </c>
       <c r="O3" t="e">
-        <f>AVERAGEIF($B:$B,H3,$D:$D)</f>
+        <f t="shared" ref="O3:O12" si="6">AVERAGEIF($B:$B,H3,$D:$D)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30608,7 +30430,7 @@
       <c r="C4">
         <v>168</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -30618,34 +30440,34 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>H3+1</f>
+        <f t="shared" ref="H4:H12" si="7">H3+1</f>
         <v>2</v>
       </c>
       <c r="I4">
-        <f>COUNTIF($B:$B,H4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J4">
-        <f>SUMIF($B:$B,H4,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1680</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIF($B:$B,H4,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f>L4^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>L4/K4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O4" t="e">
-        <f>AVERAGEIF($B:$B,H4,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30660,7 +30482,7 @@
       <c r="C5">
         <v>152</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -30670,34 +30492,34 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>H4+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I5">
-        <f>COUNTIF($B:$B,H5)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>SUMIF($B:$B,H5,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1520</v>
       </c>
       <c r="K5">
-        <f>AVERAGEIF($B:$B,H5,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <f>L5^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>L5/K5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O5" t="e">
-        <f>AVERAGEIF($B:$B,H5,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30712,7 +30534,7 @@
       <c r="C6">
         <v>1600</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -30722,34 +30544,34 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>H5+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I6">
-        <f>COUNTIF($B:$B,H6)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J6">
-        <f>SUMIF($B:$B,H6,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="K6">
-        <f>AVERAGEIF($B:$B,H6,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <f>L6^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>L6/K6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O6" t="e">
-        <f>AVERAGEIF($B:$B,H6,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30764,7 +30586,7 @@
       <c r="C7">
         <v>144</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
@@ -30774,34 +30596,34 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>H6+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I7">
-        <f>COUNTIF($B:$B,H7)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J7">
-        <f>SUMIF($B:$B,H7,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
       <c r="K7">
-        <f>AVERAGEIF($B:$B,H7,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <f>L7^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>L7/K7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O7" t="e">
-        <f>AVERAGEIF($B:$B,H7,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30816,7 +30638,7 @@
       <c r="C8">
         <v>1600</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -30826,34 +30648,34 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>H7+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I8">
-        <f>COUNTIF($B:$B,H8)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J8">
-        <f>SUMIF($B:$B,H8,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIF($B:$B,H8,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <f>L8^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>L8/K8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" t="e">
-        <f>AVERAGEIF($B:$B,H8,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30868,7 +30690,7 @@
       <c r="C9">
         <v>1600</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
@@ -30878,34 +30700,34 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>H8+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I9">
-        <f>COUNTIF($B:$B,H9)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J9">
-        <f>SUMIF($B:$B,H9,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIF($B:$B,H9,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <f>L9^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>L9/K9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9" t="e">
-        <f>AVERAGEIF($B:$B,H9,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30920,7 +30742,7 @@
       <c r="C10">
         <v>368</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -30930,34 +30752,34 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>H9+1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I10">
-        <f>COUNTIF($B:$B,H10)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J10">
-        <f>SUMIF($B:$B,H10,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>3680</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIF($B:$B,H10,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>368</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f>L10^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>L10/K10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O10" t="e">
-        <f>AVERAGEIF($B:$B,H10,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -30972,7 +30794,7 @@
       <c r="C11">
         <v>1600</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
@@ -30982,34 +30804,34 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>H10+1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I11">
-        <f>COUNTIF($B:$B,H11)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J11">
-        <f>SUMIF($B:$B,H11,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="K11">
-        <f>AVERAGEIF($B:$B,H11,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <f>L11^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>L11/K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" t="e">
-        <f>AVERAGEIF($B:$B,H11,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31024,7 +30846,7 @@
       <c r="C12">
         <v>168</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -31034,34 +30856,34 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>H11+1</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I12">
-        <f>COUNTIF($B:$B,H12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J12">
-        <f>SUMIF($B:$B,H12,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>1760</v>
       </c>
       <c r="K12">
-        <f>AVERAGEIF($B:$B,H12,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <f>L12^2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>L12/K12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" t="e">
-        <f>AVERAGEIF($B:$B,H12,$D:$D)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31076,7 +30898,7 @@
       <c r="C13">
         <v>176</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
@@ -31097,7 +30919,7 @@
       <c r="C14">
         <v>168</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -31136,7 +30958,7 @@
       <c r="C15">
         <v>152</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
@@ -31175,7 +30997,7 @@
       <c r="C16">
         <v>1600</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -31185,7 +31007,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>H15+1</f>
+        <f t="shared" ref="H16:H24" si="8">H15+1</f>
         <v>2</v>
       </c>
       <c r="I16">
@@ -31219,7 +31041,7 @@
       <c r="C17">
         <v>144</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
@@ -31229,7 +31051,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>H16+1</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I17">
@@ -31263,7 +31085,7 @@
       <c r="C18">
         <v>1600</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -31273,7 +31095,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>H17+1</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -31303,7 +31125,7 @@
       <c r="C19">
         <v>1600</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
@@ -31313,7 +31135,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f>H18+1</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I19">
@@ -31347,7 +31169,7 @@
       <c r="C20">
         <v>368</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -31357,7 +31179,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>H19+1</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -31387,7 +31209,7 @@
       <c r="C21">
         <v>1600</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>32</v>
       </c>
       <c r="E21" t="s">
@@ -31397,7 +31219,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>H20+1</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -31427,7 +31249,7 @@
       <c r="C22">
         <v>168</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -31437,7 +31259,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>H21+1</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -31467,7 +31289,7 @@
       <c r="C23">
         <v>176</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
@@ -31477,7 +31299,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>H22+1</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -31507,7 +31329,7 @@
       <c r="C24">
         <v>168</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -31517,7 +31339,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>H23+1</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -31547,7 +31369,7 @@
       <c r="C25">
         <v>152</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
@@ -31568,7 +31390,7 @@
       <c r="C26">
         <v>1600</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -31589,7 +31411,7 @@
       <c r="C27">
         <v>144</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
@@ -31610,7 +31432,7 @@
       <c r="C28">
         <v>1600</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -31631,7 +31453,7 @@
       <c r="C29">
         <v>1600</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
@@ -31652,7 +31474,7 @@
       <c r="C30">
         <v>368</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -31673,7 +31495,7 @@
       <c r="C31">
         <v>1600</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
@@ -31694,7 +31516,7 @@
       <c r="C32">
         <v>168</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -31715,7 +31537,7 @@
       <c r="C33">
         <v>176</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
@@ -31736,7 +31558,7 @@
       <c r="C34">
         <v>168</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -31757,7 +31579,7 @@
       <c r="C35">
         <v>152</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
@@ -31778,7 +31600,7 @@
       <c r="C36">
         <v>1600</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -31799,7 +31621,7 @@
       <c r="C37">
         <v>144</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
@@ -31820,7 +31642,7 @@
       <c r="C38">
         <v>1600</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -31841,7 +31663,7 @@
       <c r="C39">
         <v>1600</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>32</v>
       </c>
       <c r="E39" t="s">
@@ -31862,7 +31684,7 @@
       <c r="C40">
         <v>368</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -31883,7 +31705,7 @@
       <c r="C41">
         <v>1600</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>32</v>
       </c>
       <c r="E41" t="s">
@@ -31904,7 +31726,7 @@
       <c r="C42">
         <v>168</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -31925,7 +31747,7 @@
       <c r="C43">
         <v>176</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
@@ -31946,7 +31768,7 @@
       <c r="C44">
         <v>168</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -31967,7 +31789,7 @@
       <c r="C45">
         <v>152</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
@@ -31988,7 +31810,7 @@
       <c r="C46">
         <v>1600</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -32009,7 +31831,7 @@
       <c r="C47">
         <v>144</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
@@ -32030,7 +31852,7 @@
       <c r="C48">
         <v>1600</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -32051,7 +31873,7 @@
       <c r="C49">
         <v>1600</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>32</v>
       </c>
       <c r="E49" t="s">
@@ -32072,7 +31894,7 @@
       <c r="C50">
         <v>368</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -32093,7 +31915,7 @@
       <c r="C51">
         <v>1600</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" t="s">
         <v>32</v>
       </c>
       <c r="E51" t="s">
@@ -32114,7 +31936,7 @@
       <c r="C52">
         <v>168</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -32135,7 +31957,7 @@
       <c r="C53">
         <v>176</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
@@ -32156,7 +31978,7 @@
       <c r="C54">
         <v>168</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -32177,7 +31999,7 @@
       <c r="C55">
         <v>152</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
@@ -32198,7 +32020,7 @@
       <c r="C56">
         <v>1600</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -32219,7 +32041,7 @@
       <c r="C57">
         <v>144</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="s">
@@ -32240,7 +32062,7 @@
       <c r="C58">
         <v>1600</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" t="s">
         <v>32</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -32261,7 +32083,7 @@
       <c r="C59">
         <v>1600</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" t="s">
         <v>32</v>
       </c>
       <c r="E59" t="s">
@@ -32282,7 +32104,7 @@
       <c r="C60">
         <v>368</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -32303,7 +32125,7 @@
       <c r="C61">
         <v>1600</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -32324,7 +32146,7 @@
       <c r="C62">
         <v>168</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -32345,7 +32167,7 @@
       <c r="C63">
         <v>176</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
@@ -32366,7 +32188,7 @@
       <c r="C64">
         <v>168</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -32387,7 +32209,7 @@
       <c r="C65">
         <v>152</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" t="s">
         <v>16</v>
       </c>
       <c r="E65" t="s">
@@ -32408,7 +32230,7 @@
       <c r="C66">
         <v>1600</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" t="s">
         <v>32</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -32423,13 +32245,13 @@
         <v>35</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B101" si="1">MID(A67,33,LEN(A67) - 36)</f>
+        <f t="shared" ref="B67:B101" si="9">MID(A67,33,LEN(A67) - 36)</f>
         <v>5</v>
       </c>
       <c r="C67">
         <v>144</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
@@ -32444,13 +32266,13 @@
         <v>36</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C68">
         <v>1600</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" t="s">
         <v>32</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -32465,13 +32287,13 @@
         <v>37</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C69">
         <v>1600</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" t="s">
         <v>32</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -32486,13 +32308,13 @@
         <v>38</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C70">
         <v>368</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="s">
@@ -32507,13 +32329,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C71">
         <v>1600</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -32528,13 +32350,13 @@
         <v>29</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C72">
         <v>168</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -32549,13 +32371,13 @@
         <v>30</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C73">
         <v>176</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="s">
@@ -32570,13 +32392,13 @@
         <v>31</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C74">
         <v>168</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -32591,13 +32413,13 @@
         <v>33</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C75">
         <v>152</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="E75" t="s">
@@ -32612,13 +32434,13 @@
         <v>34</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C76">
         <v>1600</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" t="s">
         <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -32633,13 +32455,13 @@
         <v>35</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C77">
         <v>144</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -32654,13 +32476,13 @@
         <v>36</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C78">
         <v>1600</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" t="s">
         <v>32</v>
       </c>
       <c r="E78" t="s">
@@ -32675,13 +32497,13 @@
         <v>37</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C79">
         <v>1600</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" t="s">
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -32696,13 +32518,13 @@
         <v>38</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C80">
         <v>368</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
@@ -32717,13 +32539,13 @@
         <v>39</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C81">
         <v>1600</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -32738,13 +32560,13 @@
         <v>29</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C82">
         <v>168</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" t="s">
@@ -32759,13 +32581,13 @@
         <v>30</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C83">
         <v>176</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -32780,13 +32602,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C84">
         <v>168</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -32801,13 +32623,13 @@
         <v>33</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C85">
         <v>152</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -32822,13 +32644,13 @@
         <v>34</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C86">
         <v>1600</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" t="s">
         <v>32</v>
       </c>
       <c r="E86" t="s">
@@ -32843,13 +32665,13 @@
         <v>35</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C87">
         <v>144</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -32864,13 +32686,13 @@
         <v>36</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C88">
         <v>1600</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" t="s">
         <v>32</v>
       </c>
       <c r="E88" t="s">
@@ -32885,13 +32707,13 @@
         <v>37</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C89">
         <v>1600</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" t="s">
         <v>32</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -32906,13 +32728,13 @@
         <v>38</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C90">
         <v>368</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
@@ -32927,13 +32749,13 @@
         <v>39</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C91">
         <v>1600</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" t="s">
         <v>32</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -32948,13 +32770,13 @@
         <v>29</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C92">
         <v>168</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92" t="s">
@@ -32969,13 +32791,13 @@
         <v>30</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C93">
         <v>176</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -32990,13 +32812,13 @@
         <v>31</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C94">
         <v>168</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
@@ -33011,13 +32833,13 @@
         <v>33</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C95">
         <v>152</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -33032,13 +32854,13 @@
         <v>34</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C96">
         <v>1600</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96" t="s">
@@ -33053,13 +32875,13 @@
         <v>35</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C97">
         <v>144</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -33074,13 +32896,13 @@
         <v>36</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C98">
         <v>1600</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" t="s">
         <v>32</v>
       </c>
       <c r="E98" t="s">
@@ -33095,13 +32917,13 @@
         <v>37</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C99">
         <v>1600</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" t="s">
         <v>32</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -33116,13 +32938,13 @@
         <v>38</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C100">
         <v>368</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100" t="s">
@@ -33137,13 +32959,13 @@
         <v>39</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C101">
         <v>1600</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" t="s">
         <v>32</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -33154,349 +32976,172 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="6"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="6"/>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="6"/>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="6"/>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="6"/>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="6"/>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="6"/>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="6"/>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="6"/>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="6"/>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="6"/>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="6"/>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="6"/>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="6"/>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="6"/>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="6"/>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="6"/>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="6"/>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="6"/>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="6"/>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="6"/>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="6"/>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="6"/>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="6"/>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="6"/>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="6"/>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="6"/>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="6"/>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="6"/>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="6"/>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="6"/>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="6"/>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="6"/>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" s="6"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" s="6"/>
-    </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" s="6"/>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" s="6"/>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" s="6"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" s="6"/>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
